--- a/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,3; 27,64</t>
+          <t>20,26; 27,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,11; 36,2</t>
+          <t>27,44; 36,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,13; 29,27</t>
+          <t>19,72; 28,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,49; 31,66</t>
+          <t>22,98; 30,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,62; 34,32</t>
+          <t>26,07; 34,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,54; 29,08</t>
+          <t>20,61; 28,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,74; 28,44</t>
+          <t>22,73; 28,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,25; 34,08</t>
+          <t>27,83; 34,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,31; 27,43</t>
+          <t>21,65; 27,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 24,34</t>
+          <t>18,37; 24,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,24; 28,39</t>
+          <t>21,58; 28,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,36; 21,9</t>
+          <t>15,76; 22,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 21,7</t>
+          <t>15,48; 21,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,61; 17,95</t>
+          <t>11,78; 17,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,97; 26,08</t>
+          <t>19,09; 26,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,61; 22,08</t>
+          <t>17,73; 22,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 22,3</t>
+          <t>17,8; 22,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,17; 22,9</t>
+          <t>17,96; 22,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,77</t>
+          <t>12,02; 17,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 19,55</t>
+          <t>13,58; 19,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,23</t>
+          <t>9,98; 15,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 14,21</t>
+          <t>9,22; 14,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 18,35</t>
+          <t>12,51; 18,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,87; 16,66</t>
+          <t>10,92; 16,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 14,98</t>
+          <t>11,28; 14,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,03; 18,12</t>
+          <t>13,92; 18,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 14,88</t>
+          <t>11,15; 14,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 19,42</t>
+          <t>12,94; 19,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,12; 19,94</t>
+          <t>13,66; 19,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,93</t>
+          <t>9,76; 14,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 12,77</t>
+          <t>7,47; 12,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,13; 14,41</t>
+          <t>9,1; 14,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 14,08</t>
+          <t>8,82; 13,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,79; 15,33</t>
+          <t>10,79; 14,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 16,25</t>
+          <t>12,07; 16,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 13,45</t>
+          <t>10,05; 13,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,74; 12,88</t>
+          <t>6,81; 12,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,6; 13,61</t>
+          <t>7,5; 13,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 14,23</t>
+          <t>7,81; 14,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 9,7</t>
+          <t>4,63; 9,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,27</t>
+          <t>6,69; 12,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,86; 13,43</t>
+          <t>8,01; 13,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 10,34</t>
+          <t>6,72; 10,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,92</t>
+          <t>7,79; 11,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,81</t>
+          <t>8,77; 12,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,61</t>
+          <t>3,47; 7,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,49</t>
+          <t>3,7; 7,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,74</t>
+          <t>3,84; 7,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,41</t>
+          <t>1,79; 4,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,96</t>
+          <t>3,72; 7,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,71</t>
+          <t>4,01; 7,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,28</t>
+          <t>2,95; 5,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,66</t>
+          <t>4,08; 6,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,04</t>
+          <t>4,4; 7,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,53; 17,12</t>
+          <t>14,44; 16,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,4; 18,88</t>
+          <t>16,29; 18,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,32; 14,66</t>
+          <t>12,26; 14,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,35; 13,5</t>
+          <t>11,38; 13,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,34; 14,59</t>
+          <t>12,42; 14,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,46; 14,7</t>
+          <t>12,44; 14,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,11; 14,92</t>
+          <t>13,23; 14,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,66; 16,37</t>
+          <t>14,66; 16,34</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,66; 14,38</t>
+          <t>12,76; 14,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,26; 27,44</t>
+          <t>20,27; 27,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,44; 36,45</t>
+          <t>27,71; 36,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,72; 28,74</t>
+          <t>20,15; 28,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,54; 30,04</t>
+          <t>16,3; 29,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,98; 30,82</t>
+          <t>23,05; 30,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,07; 34,94</t>
+          <t>25,85; 34,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 28,88</t>
+          <t>20,52; 28,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,4; 28,74</t>
+          <t>16,39; 28,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,73; 28,25</t>
+          <t>22,86; 28,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,83; 34,16</t>
+          <t>27,58; 34,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,65; 27,55</t>
+          <t>21,23; 27,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 26,93</t>
+          <t>17,4; 26,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,37; 24,45</t>
+          <t>18,28; 24,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,58; 28,44</t>
+          <t>21,29; 28,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 22,85</t>
+          <t>15,79; 22,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,82; 33,15</t>
+          <t>21,78; 33,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,61</t>
+          <t>15,51; 21,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 17,65</t>
+          <t>12,04; 18,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,09; 26,12</t>
+          <t>19,03; 25,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 24,52</t>
+          <t>16,14; 24,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 22,26</t>
+          <t>17,71; 21,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,8; 22,32</t>
+          <t>17,97; 22,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,96; 22,78</t>
+          <t>18,2; 22,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,27; 27,07</t>
+          <t>20,31; 27,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,02; 17,69</t>
+          <t>12,1; 17,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 19,61</t>
+          <t>13,54; 19,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,98; 15,13</t>
+          <t>9,92; 15,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,5; 25,52</t>
+          <t>18,05; 25,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,24</t>
+          <t>9,43; 14,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,51; 18,25</t>
+          <t>12,8; 18,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,92; 16,22</t>
+          <t>10,75; 15,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,03</t>
+          <t>13,27; 18,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,28; 14,75</t>
+          <t>11,07; 14,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,92; 18,03</t>
+          <t>13,85; 18,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,15; 14,83</t>
+          <t>11,17; 14,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 21,08</t>
+          <t>16,6; 21,16</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,94; 19,74</t>
+          <t>13,19; 19,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 19,84</t>
+          <t>13,92; 19,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 14,94</t>
+          <t>9,63; 15,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 18,12</t>
+          <t>11,34; 18,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,85</t>
+          <t>7,54; 12,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,1; 14,71</t>
+          <t>9,19; 14,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,82; 13,94</t>
+          <t>8,92; 14,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,9; 16,31</t>
+          <t>11,8; 16,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,79; 14,96</t>
+          <t>10,87; 15,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 16,12</t>
+          <t>12,13; 16,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 13,57</t>
+          <t>10,11; 13,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 16,47</t>
+          <t>12,34; 16,23</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 12,8</t>
+          <t>6,82; 12,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,28</t>
+          <t>7,46; 13,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,81; 14,13</t>
+          <t>7,87; 13,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 16,82</t>
+          <t>11,11; 16,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,59</t>
+          <t>4,89; 9,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 12,57</t>
+          <t>6,89; 12,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,01; 13,82</t>
+          <t>7,89; 13,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,05</t>
+          <t>9,68; 13,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,41</t>
+          <t>6,36; 10,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 11,84</t>
+          <t>7,88; 11,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,77; 12,85</t>
+          <t>8,56; 12,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 14,47</t>
+          <t>11,23; 14,82</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,6</t>
+          <t>3,59; 7,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,68</t>
+          <t>3,61; 7,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,82</t>
+          <t>3,83; 7,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,93; 10,58</t>
+          <t>6,94; 10,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,25</t>
+          <t>1,77; 4,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,08</t>
+          <t>3,6; 7,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,42</t>
+          <t>4,14; 7,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,45</t>
+          <t>3,63; 6,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,33</t>
+          <t>2,97; 5,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,45</t>
+          <t>4,09; 6,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,08</t>
+          <t>4,44; 6,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 7,55</t>
+          <t>5,24; 7,63</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,44; 16,98</t>
+          <t>14,45; 17,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,29; 18,99</t>
+          <t>16,22; 18,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,26; 14,69</t>
+          <t>12,24; 14,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,36; 18,53</t>
+          <t>15,29; 18,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,38; 13,69</t>
+          <t>11,29; 13,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,42; 14,72</t>
+          <t>12,43; 14,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,44; 14,68</t>
+          <t>12,43; 14,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,58; 14,37</t>
+          <t>11,89; 14,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,23; 14,96</t>
+          <t>13,26; 14,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,66; 16,34</t>
+          <t>14,62; 16,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,76; 14,34</t>
+          <t>12,73; 14,4</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,81; 15,92</t>
+          <t>13,92; 15,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>21,34%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 29,43</t>
+          <t>14,86; 28,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,39; 28,53</t>
+          <t>16,6; 28,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,4; 26,95</t>
+          <t>16,61; 26,08</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,27 +831,27 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>17,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>20,44%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>19,9%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>19,95%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>20,44%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>21,4%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,78; 33,46</t>
+          <t>20,67; 32,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,14; 24,69</t>
+          <t>10,75; 22,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,31; 27,0</t>
+          <t>16,54; 25,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 25,77</t>
+          <t>17,51; 25,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 18,86</t>
+          <t>12,89; 18,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 21,16</t>
+          <t>16,1; 20,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>12,09%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,34; 18,31</t>
+          <t>5,09; 16,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,8; 16,24</t>
+          <t>10,74; 15,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 16,23</t>
+          <t>7,0; 14,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>12,46%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,46</t>
+          <t>10,63; 15,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 13,77</t>
+          <t>9,62; 13,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,23; 14,82</t>
+          <t>10,88; 14,34</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,69</t>
+          <t>3,1; 8,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,64</t>
+          <t>4,99; 11,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,8</t>
+          <t>4,07; 9,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,53</t>
+          <t>6,88; 11,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,3</t>
+          <t>2,45; 6,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,07</t>
+          <t>3,36; 8,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,87</t>
+          <t>5,33; 11,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,41</t>
+          <t>1,7; 7,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,31</t>
+          <t>3,35; 6,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,09; 6,61</t>
+          <t>4,8; 8,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,93</t>
+          <t>5,31; 9,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,63</t>
+          <t>3,43; 8,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>3,13; 9,76</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 6,08</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 8,09</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5,53; 10,3</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 3,17</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 7,12</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 5,92</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 6,33</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 4,78</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 5,92</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 5,85</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,51; 7,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15,71%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15,41%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>13,52%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>14,45; 17,05</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>16,22; 18,93</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>12,24; 14,65</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>15,29; 18,64</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11,83; 17,26</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>11,29; 13,64</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>12,43; 14,68</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>12,43; 14,81</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>11,89; 14,46</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 13,66</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>13,26; 14,89</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>14,62; 16,35</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>12,73; 14,4</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>13,92; 15,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12,02; 15,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,27; 27,72</t>
+          <t>19,88; 27,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,71; 36,19</t>
+          <t>27,3; 36,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,15; 28,7</t>
+          <t>20,11; 28,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 28,18</t>
+          <t>14,57; 28,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,05; 30,95</t>
+          <t>23,11; 30,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,85; 34,67</t>
+          <t>25,94; 34,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,52; 28,59</t>
+          <t>20,63; 29,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,6; 28,99</t>
+          <t>16,11; 28,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,86; 28,23</t>
+          <t>22,58; 28,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,58; 34,11</t>
+          <t>28,12; 34,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,23; 27,37</t>
+          <t>21,73; 27,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,61; 26,08</t>
+          <t>17,13; 26,4</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,28; 24,37</t>
+          <t>18,13; 24,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,29; 28,04</t>
+          <t>21,45; 28,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,79; 22,31</t>
+          <t>15,81; 22,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,67; 32,25</t>
+          <t>20,76; 31,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,51; 21,85</t>
+          <t>15,37; 21,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 18,02</t>
+          <t>11,88; 17,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,03; 25,79</t>
+          <t>18,75; 25,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 22,31</t>
+          <t>10,88; 22,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,71; 21,95</t>
+          <t>17,78; 22,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,97; 22,74</t>
+          <t>17,66; 22,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,2; 22,93</t>
+          <t>18,36; 23,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,54; 25,06</t>
+          <t>16,59; 25,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 17,61</t>
+          <t>12,22; 17,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,54; 19,43</t>
+          <t>13,66; 19,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,92; 15,02</t>
+          <t>9,8; 14,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,51; 25,06</t>
+          <t>17,46; 24,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,24</t>
+          <t>9,13; 13,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,8; 18,4</t>
+          <t>12,49; 18,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 15,92</t>
+          <t>11,13; 16,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,39</t>
+          <t>13,24; 18,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,07; 14,89</t>
+          <t>11,2; 14,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,85; 18,05</t>
+          <t>13,98; 17,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 14,79</t>
+          <t>11,01; 14,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,1; 20,63</t>
+          <t>16,07; 20,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,19; 19,73</t>
+          <t>12,71; 19,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 19,98</t>
+          <t>13,86; 19,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 15,01</t>
+          <t>9,65; 14,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 16,2</t>
+          <t>4,72; 16,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 12,88</t>
+          <t>7,35; 12,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 14,6</t>
+          <t>9,12; 14,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 14,01</t>
+          <t>8,78; 13,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 15,57</t>
+          <t>11,03; 15,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 15,16</t>
+          <t>10,82; 15,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 16,29</t>
+          <t>12,09; 16,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 13,61</t>
+          <t>9,79; 13,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 14,78</t>
+          <t>7,28; 14,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 12,57</t>
+          <t>6,9; 13,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,24</t>
+          <t>7,37; 13,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 13,89</t>
+          <t>7,71; 13,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,75</t>
+          <t>10,87; 16,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,88</t>
+          <t>4,79; 9,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,89; 12,36</t>
+          <t>6,71; 12,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 13,91</t>
+          <t>7,82; 13,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,62; 13,63</t>
+          <t>9,71; 13,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,33</t>
+          <t>6,59; 10,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 11,78</t>
+          <t>7,61; 11,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,73</t>
+          <t>8,61; 12,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,88; 14,34</t>
+          <t>10,87; 14,33</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 8,62</t>
+          <t>2,93; 8,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,08</t>
+          <t>4,53; 10,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,44</t>
+          <t>4,11; 9,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,64</t>
+          <t>7,02; 11,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,84</t>
+          <t>2,51; 7,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,36; 8,88</t>
+          <t>3,64; 8,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,33; 11,06</t>
+          <t>5,01; 10,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 7,5</t>
+          <t>1,78; 7,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,65</t>
+          <t>3,37; 6,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,91</t>
+          <t>4,84; 8,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,29</t>
+          <t>5,27; 9,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,43; 8,65</t>
+          <t>3,03; 8,39</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,76</t>
+          <t>3,18; 9,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,08</t>
+          <t>1,31; 6,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,09</t>
+          <t>2,37; 7,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,53; 10,3</t>
+          <t>5,4; 10,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,17</t>
+          <t>0,35; 3,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,12</t>
+          <t>2,64; 7,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,92</t>
+          <t>1,91; 6,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,33</t>
+          <t>3,43; 6,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,78</t>
+          <t>1,82; 5,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,92</t>
+          <t>2,59; 5,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,85</t>
+          <t>2,56; 5,82</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,05</t>
+          <t>4,65; 7,22</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,45; 17,05</t>
+          <t>14,4; 16,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,22; 18,93</t>
+          <t>16,3; 18,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,24; 14,65</t>
+          <t>12,39; 14,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,83; 17,26</t>
+          <t>12,39; 17,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,29; 13,64</t>
+          <t>11,29; 13,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,43; 14,68</t>
+          <t>12,23; 14,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,43; 14,81</t>
+          <t>12,43; 14,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,16; 13,66</t>
+          <t>10,16; 13,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,26; 14,89</t>
+          <t>13,16; 14,92</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>14,62; 16,35</t>
+          <t>14,67; 16,4</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12,73; 14,4</t>
+          <t>12,65; 14,43</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,02; 15,0</t>
+          <t>12,04; 15,0</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna quemadura solar en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>117220</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>142909</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>100261</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>83301</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>126246</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>127869</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>97095</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>68905</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>243465</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>270778</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>197356</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>152207</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>97859; 135989</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>123037; 163128</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>83434; 119652</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>58283; 115671</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>107620; 144266</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>110521; 147211</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>81427; 115527</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50454; 90272</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>216291; 270502</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>246564; 298394</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>175924; 223749</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>122158; 188286</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>154574</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>168465</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>109496</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>110044</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>115610</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>89046</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>125148</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>89988</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>270184</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>257511</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>234644</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>200032</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>133015; 177534</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>146342; 193372</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>92535; 130068</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>87949; 135158</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>95972; 133957</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>72280; 107564</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>105500; 144031</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>55648; 114086</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>241379; 301123</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>227940; 285307</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>210726; 265325</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>155137; 235310</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>94092</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>111902</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>82366</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>111202</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>78959</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>108101</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>88015</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>85184</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>173051</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>220003</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>170381</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>196386</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>77945; 112792</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92772; 131529</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>65269; 99011</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>92962; 130312</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>62854; 95438</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>87984; 128327</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>73102; 107079</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>71819; 99769</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>148580; 197319</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>193391; 247127</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>145672; 193273</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>172721; 220648</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>82895</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>101534</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>78187</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>98490</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>50621</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>70629</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>71699</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>94722</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>133516</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>172162</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>149886</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>193213</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>65854; 100164</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>84293; 120793</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>62018; 96392</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41872; 144353</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>37751; 64572</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>55784; 89050</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>56422; 88223</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>78415; 110806</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>111608; 157397</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>147553; 196700</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>125896; 174580</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>116337; 237726</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>37209</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>43124</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>50504</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>74442</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>28216</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>41502</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>51954</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>63540</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>65425</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>84626</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>102458</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>137981</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>26596; 50198</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>31492; 55792</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>36566; 64806</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>60901; 90361</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19339; 40375</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29896; 55266</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>38565; 67819</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>53150; 76233</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>52005; 81720</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>66471; 102052</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>83278; 121771</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>120350; 158714</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15523</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>22561</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20677</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>33427</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14701</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>20226</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29182</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>28042</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>30223</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>42786</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>49859</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>61469</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8542; 23911</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13885; 32108</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13549; 32366</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>25765; 43446</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8601; 24501</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12688; 30134</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>18692; 40107</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10795; 46153</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>21394; 41567</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>31768; 56497</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>36986; 64590</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>29548; 81780</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11955</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7411</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>11664</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>21110</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4589</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>17317</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>14354</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>20061</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>16545</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>24728</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>26017</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>41171</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6666; 20794</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3204; 15138</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>5977; 19107</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>15258; 29310</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1177; 11561</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9970; 28169</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>7542; 24841</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14598; 26376</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>9834; 28065</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>16130; 35981</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>16592; 37700</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>32968; 51139</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>513467</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>597905</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>453154</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>532017</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>418942</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>474690</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>477446</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>450443</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>932409</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1072595</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>930600</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>982460</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>470835; 553488</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>553901; 642646</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>417035; 500918</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>427918; 596289</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>380482; 456084</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>430882; 516401</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>437175; 516935</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>371769; 501114</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>873613; 990516</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1015275; 1135391</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>870594; 993009</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>856184; 1066815</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
